--- a/biology/Botanique/Tillandsia_didistichoides/Tillandsia_didistichoides.xlsx
+++ b/biology/Botanique/Tillandsia_didistichoides/Tillandsia_didistichoides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tillandsia didistichoides Mez est une plante de la famille des Bromeliaceae.
 L'épithète didistichoides peut signifier « semblant deux fois distique » et serait alors probablement en rapport avec la phyllotaxie de la rosette, mais peut aussi signifier « ressemble à (Tillandsia) didisticha », un taxon publié par le même auteur dans le même document. Le protologue ne fournit aucune précision qui permettrait de lever cette ambiguïté.
@@ -512,13 +524,15 @@
           <t>Protologue et Type nomenclatural</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Tillandsia didistichoides Mez in C.DC., Monogr. Phan. 9: 778, n° 134 (1896)
-Diagnose originale[1] :
+Diagnose originale :
 « statura parva ; foliis bulbose rosulatis, ad 12 mm. latis, dense lepidibus minutis peradpressisque obtectis +/- cinereis ; inflorescentia bipinnatim panniculata[sic] ; spicis subflabellatis, ad 8-floris ; bracteis primariis quam spicae multo brevioribus ; bracteolis florigeris sepala manifeste superantibus ; floribus erectis ; sepalis antico libero posticis binis basi brevissime connatis. »
 Type :
-leg. A. Fendler, n° 827 ; « Trinidad » ; Holotypus Herb. Mus. Brit., Kew[1].
+leg. A. Fendler, n° 827 ; « Trinidad » ; Holotypus Herb. Mus. Brit., Kew.
 leg. A. Fendler, n° 827, 1877-80 ; « Trinidad » ; Isotypus NY (NY 247330)</t>
         </is>
       </c>
@@ -549,10 +563,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Synonymie nomenclaturale
-Vriesea didistichoides (Mez) L.B.Sm.
-Synonymie taxonomique
-(aucune)</t>
+          <t>Synonymie nomenclaturale</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Vriesea didistichoides (Mez) L.B.Sm.</t>
         </is>
       </c>
     </row>
@@ -577,10 +594,20 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Synonymie taxonomique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(aucune)</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -603,16 +630,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Écologie et habitat</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Typologie : plante herbacée en rosette acaule monocarpique vivace par ses rejets latéraux ; épiphyte[1].
-Habitat : ?
-Altitude : ?</t>
-        </is>
-      </c>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -635,14 +658,16 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Distribution</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Antilles :
- Trinité-et-Tobago
-Trinidad[1]</t>
+          <t>Écologie et habitat</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Typologie : plante herbacée en rosette acaule monocarpique vivace par ses rejets latéraux ; épiphyte.
+Habitat : ?
+Altitude : ?</t>
         </is>
       </c>
     </row>
@@ -667,10 +692,46 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Antilles :
+ Trinité-et-Tobago
+Trinidad</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Tillandsia_didistichoides</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tillandsia_didistichoides</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Comportement en culture</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
